--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc11.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a diferença entre "recursos" e "minerais" para efeitos da Parte XI?</t>
+          <t>Qual é a definição de "recursos" para efeitos da Parte XI da Convenção?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Recursos" são minerais in situ (no local); "minerais" são os recursos uma vez extraídos da Área.</t>
+          <t>Todos os recursos minerais sólidos, líquidos ou gasosos in situ, na Área, no leito do mar ou no seu subsolo, incluindo nódulos polimetálicos, conforme o Art. 133, alínea 'a'.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o princípio fundamental que rege o estatuto jurídico da Área e seus recursos?</t>
+          <t>Qual é o status jurídico da Área e de seus recursos segundo a Convenção?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A Área e seus recursos são patrimônio comum da humanidade.</t>
+          <t>A Área e seus recursos são patrimônio comum da humanidade, conforme o Art. 136.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Um Estado pode reivindicar ou exercer soberania sobre qualquer parte da Área?</t>
+          <t>Quem é responsável por danos causados pelo não cumprimento das obrigações na Área?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Não, nenhum Estado pode reivindicar ou exercer soberania ou direitos de soberania sobre a Área.</t>
+          <t>Os Estados Partes ou organizações internacionais têm responsabilidade pelos danos causados pelo não cumprimento, sendo conjunta e solidária quando atuam em comum, nos termos do Art. 139, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág. 35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quem é responsável por danos causados pelo não cumprimento das obrigações na Área?</t>
+          <t>Quem são os beneficiários das atividades realizadas na Área?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Os Estados Partes ou organizações internacionais são responsáveis; se atuarem em comum, a responsabilidade é solidária.</t>
+          <t>A humanidade em geral, independentemente da situação geográfica dos Estados, tendo em conta os interesses dos países em desenvolvimento, conforme o Art. 140, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Em benefício de quem devem ser realizadas as atividades na Área?</t>
+          <t>Para quais fins a Área está aberta à utilização pelos Estados?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Em benefício da humanidade em geral, independentemente da situação geográfica dos Estados.</t>
+          <t>Exclusivamente para fins pacíficos, conforme o Art. 141.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que é necessário caso atividades na Área possam aproveitar recursos que cruzam limites e estão sob jurisdição nacional?</t>
+          <t>Como deve ser realizada a investigação científica marinha na Área?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>É necessário o consentimento prévio do Estado costeiro interessado.</t>
+          <t>Exclusivamente com fins pacíficos e em benefício da humanidade em geral, conforme o Art. 143, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág. 36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da transferência de tecnologia promovida pela Autoridade e Estados Partes?</t>
+          <t>Qual é a obrigação da Autoridade em relação à tecnologia e conhecimentos científicos na Área?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Permitir que a Empresa e todos os Estados Partes (especialmente os em desenvolvimento) se beneficiem da tecnologia e conhecimentos científicos.</t>
+          <t>Adquirir e promover a transferência de tecnologia e conhecimentos para os Estados em desenvolvimento, conforme o Art. 144, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A Autoridade deve adotar normas para prevenir quais tipos de danos ao meio marinho?</t>
+          <t>O que a Autoridade deve fazer para proteger o meio marinho das atividades na Área?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Poluição, perturbação do equilíbrio ecológico e danos à flora e fauna decorrentes de atividades como perfuração e escavação.</t>
+          <t>Adotar normas, regulamentos e procedimentos apropriados para prevenir, reduzir e controlar a poluição e outros perigos, conforme o Art. 145.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Como devem ser estabelecidas as zonas de segurança em volta de instalações na Área?</t>
+          <t>Qual é a exigência relativa à vida humana nas atividades na Área?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Devem ter sinais de navegação apropriados e não impedir o acesso lícito de navios ou a navegação em rotas internacionais.</t>
+          <t>Devem ser tomadas as medidas necessárias para assegurar a proteção eficaz da vida humana, conforme o Art. 146.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág. 37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>As instalações utilizadas para atividades na Área possuem mar territorial próprio?</t>
+          <t>As instalações utilizadas para atividades na Área possuem status jurídico de ilhas?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Não, não têm estatuto de ilhas e não possuem mar territorial próprio.</t>
+          <t>Não, elas não têm mar territorial próprio e sua existência não afeta a delimitação do mar territorial, da ZEE ou da plataforma continental, conforme o Art. 147, parágrafo 2º, alínea 'e'.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O que deve ser feito com objetos arqueológicos e históricos achados na Área?</t>
+          <t>Como deve ser tratada a participação dos Estados em desenvolvimento nas atividades na Área?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Devem ser conservados ou dispostos em benefício da humanidade, considerando os direitos preferenciais do Estado de origem.</t>
+          <t>Deve ser promovida efetivamente, tendo em conta seus interesses e necessidades especiais, especialmente os sem litoral ou em situação geográfica desfavorecida, conforme o Art. 148.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual é um dos objetivos das políticas gerais relativas às atividades na Área quanto aos preços dos minerais?</t>
+          <t>Qual o destino dos objetos arqueológicos e históricos achados na Área?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Assegurar preços justos e estáveis, remuneradores para os produtores e razoáveis para os consumidores.</t>
+          <t>Serão conservados ou dispostos em benefício da humanidade em geral, considerando os direitos do Estado de origem, conforme o Art. 149.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág. 38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O que é necessário para um operador iniciar a produção comercial durante o período provisório?</t>
+          <t>Qual é um dos objetivos das políticas gerais relativas às atividades na Área quanto à economia mundial?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Deve pedir e obter da Autoridade uma autorização de produção.</t>
+          <t>Fomentar o desenvolvimento harmonioso da economia mundial e o crescimento equilibrado do comércio internacional, conforme o Art. 150.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Autoridade pode participar de conferências sobre produtos básicos (commodities)?</t>
+          <t>O que a Autoridade deve fazer em relação aos mercados de produtos básicos obtidos da Área?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sim, tem o direito de participar em conferências e ser parte em ajustes ou acordos resultantes.</t>
+          <t>Tomar medidas para promover o crescimento, eficiência e estabilidade dos mercados a preços remuneradores para produtores e razoáveis para consumidores, conforme o Art. 151, parágrafo 1º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual é o prazo mínimo de antecedência para pedir a autorização de produção antes do início previsto da produção comercial?</t>
+          <t>Quando pode ser pedida ou emitida uma autorização de produção comercial?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Não pode ser pedida antes de cinco anos da data prevista para o início, salvo regulamento em contrário.</t>
+          <t>Não antes de cinco anos da data do início previsto para a produção comercial, salvo disposição em contrário, conforme o Art. 151, parágrafo 2º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág. 39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quem realiza as atividades na Área segundo o "sistema paralelo"?</t>
+          <t>Como é calculado o teto de produção de níquel para o período provisório?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pela Empresa e, em associação com a Autoridade, por Estados Partes ou entidades patrocinadas por eles.</t>
+          <t>Baseia-se nos valores da curva de tendência do consumo de níquel (linha de regressão linear dos últimos 15 anos), conforme o Art. 151, parágrafo 4º.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qual documento é necessário para a realização de atividades na Área?</t>
+          <t>Qual quantidade de níquel a Autoridade deve reservar para a produção inicial da Empresa?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Um plano de trabalho formal escrito, aprovado pelo Conselho (que terá a forma de contrato para entidades não-Empresa).</t>
+          <t>Uma quantidade de 38 mil toneladas métricas de níquel, conforme o Art. 151, parágrafo 5º.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A Autoridade tem o direito de inspecionar as instalações na Área?</t>
+          <t>A Autoridade pode discriminar no exercício de seus poderes?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sim, tem o direito de inspecionar todas as instalações na Área utilizadas para atividades.</t>
+          <t>A Autoridade deve evitar qualquer discriminação, embora possa dar atenção especial aos países em desenvolvimento, conforme o Art. 152.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág. 40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quando a Assembleia convocará uma conferência para revisão das disposições da Parte XI?</t>
+          <t>Quem organiza e controla as atividades na Área?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Quinze anos após o dia 1 de Janeiro do ano do início da primeira produção comercial.</t>
+          <t>A Autoridade, em nome da humanidade em geral, conforme o Art. 153, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Como devem ser tomadas as decisões na Conferência de Revisão?</t>
+          <t>Qual documento é necessário para realizar atividades na Área?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Deve-se fazer todo o possível para chegar a acordo por consenso.</t>
+          <t>Um plano de trabalho formal escrito, aprovado pelo Conselho, que terá a forma de contrato para entidades estatais ou privadas, conforme o Art. 153, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O que acontece se a Conferência de Revisão não chegar a um acordo após cinco anos do seu início?</t>
+          <t>Com que frequência a Assembleia deve examinar o funcionamento do regime internacional da Área?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pode decidir emendas por maioria de três quartos dos Estados Partes.</t>
+          <t>De cinco em cinco anos a partir da entrada em vigor da Convenção, conforme o Art. 154.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1061,23 +1061,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Onde será a sede da Autoridade Internacional dos Fundos Marinhos?</t>
+          <t>Quando será convocada a Conferência de Revisão da Parte XI?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Na Jamaica.</t>
+          <t>Quinze anos após o dia 1 de janeiro do ano do início da primeira produção comercial, conforme o Art. 155, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quem são os membros da Autoridade?</t>
+          <t>Quem são os membros da Autoridade Internacional dos Fundos Marinhos?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Todos os Estados Partes são ipso-facto membros.</t>
+          <t>Todos os Estados Partes são ipso facto membros da Autoridade, conforme o Art. 156, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1117,23 +1117,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Quais são os órgãos principais da Autoridade?</t>
+          <t>Em que princípio se baseia a Autoridade?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Uma Assembleia, um Conselho e um Secretariado.</t>
+          <t>No princípio da igualdade soberana de todos os seus membros, conforme o Art. 157, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1145,23 +1145,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qual é o quorum para as reuniões da Assembleia?</t>
+          <t>Quais são os órgãos principais da Autoridade?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A maioria dos membros da Assembleia.</t>
+          <t>Uma Assembleia, um Conselho e um Secretariado, conforme o Art. 158, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Qual a maioria necessária para decisões sobre questões de fundo na Assembleia?</t>
+          <t>Qual é a composição da Assembleia da Autoridade?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Maioria de dois terços dos membros presentes e votantes.</t>
+          <t>É composta por todos os membros da Autoridade, conforme o Art. 159, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O que a Assembleia deve fazer se solicitada a dar parecer sobre a conformidade de uma proposta com a Convenção?</t>
+          <t>Qual é a maioria necessária para decisões sobre questões de fundo na Assembleia?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Deve solicitar um parecer à Câmara de Controvérsias dos Fundos Marinhos e adiar a votação.</t>
+          <t>Maioria de dois terços dos membros presentes e votantes, conforme o Art. 159, parágrafo 8º.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qual órgão é considerado o "órgão supremo" da Autoridade?</t>
+          <t>Qual órgão é considerado o órgão supremo da Autoridade?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A Assembleia.</t>
+          <t>A Assembleia, conforme o Art. 160, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Quem elege os membros do Conselho?</t>
+          <t>Quem elege o Secretário Geral da Autoridade?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A Assembleia, de conformidade com o artigo 161.</t>
+          <t>A Assembleia, dentre os candidatos propostos pelo Conselho, conforme o Art. 160, parágrafo 2º, alínea 'b'.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1285,23 +1285,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quem fixa as contribuições dos membros para o orçamento administrativo da Autoridade?</t>
+          <t>Como são determinadas as contribuições dos membros para o orçamento administrativo?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A Assembleia.</t>
+          <t>Pela Assembleia, com base na escala utilizada para o orçamento da ONU, conforme o Art. 160, parágrafo 2º, alínea 'e'.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quantos membros compõem o Conselho?</t>
+          <t>Quantos membros compõem o Conselho da Autoridade?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>36 membros.</t>
+          <t>36 membros eleitos pela Assembleia, conforme o Art. 161, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1341,23 +1341,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Qual é a duração do mandato de um membro do Conselho?</t>
+          <t>Qual critério define os membros do grupo 'a' do Conselho?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quatro anos.</t>
+          <t>Estados que sejam grandes consumidores ou importadores (mais de 2%) das categorias de minerais a serem extraídos da Área, conforme o Art. 161, parágrafo 1º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1369,23 +1369,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O que significa "consenso" para fins de votação no Conselho?</t>
+          <t>Como são tomadas as decisões sobre questões de procedimento no Conselho?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ausência de qualquer objeção formal.</t>
+          <t>Por maioria dos membros presentes e votantes, conforme o Art. 161, parágrafo 8º, alínea 'a'.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Qual é a função principal do Conselho em relação às políticas da Autoridade?</t>
+          <t>O que significa "consenso" para fins de votação no Conselho?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>É o órgão executivo; estabelece políticas específicas conforme as políticas gerais da Assembleia.</t>
+          <t>Ausência de qualquer objeção formal dentro de 14 dias após a apresentação de uma proposta, conforme o Art. 161, parágrafo 8º, alínea 'e'.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1425,23 +1425,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>O que acontece se a Comissão Jurídica e Técnica recomendar a aprovação de um plano de trabalho?</t>
+          <t>Qual é a função do Conselho em relação às políticas da Autoridade?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Considera-se aprovado pelo Conselho, a menos que haja objeção escrita de um membro em 14 dias (sujeita a processo de conciliação).</t>
+          <t>É o órgão executivo e estabelece as políticas específicas de conformidade com as políticas gerais da Assembleia, conforme o Art. 162, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1453,23 +1453,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Quem fiscaliza a cobrança de pagamentos devidos à Autoridade?</t>
+          <t>Qual é a relação do Conselho com a Empresa (órgão operacional)?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O Conselho.</t>
+          <t>O Conselho dá diretrizes à Empresa, conforme o Art. 162, parágrafo 2º, alínea 'i'.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Quem tem poder para emitir ordens de emergência para prevenir danos graves ao meio marinho?</t>
+          <t>Qual é o prazo para o Conselho decidir sobre um plano de trabalho apresentado pela Comissão Jurídica e Técnica?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O Conselho.</t>
+          <t>Nos 60 dias seguintes à sua apresentação, conforme o Art. 162, parágrafo 2º, alínea 'j'.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1509,23 +1509,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quais são os dois órgãos subsidiários do Conselho previstos no Artigo 163?</t>
+          <t>Quem recomenda medidas para proteger Estados em desenvolvimento de efeitos econômicos adversos?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Comissão Jurídica e Técnica e Comissão de Planejamento Econômico.</t>
+          <t>A Comissão de Planejamento Econômico recomenda ao Conselho, conforme o Art. 162, parágrafo 2º, alínea 'm'.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1537,23 +1537,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Os membros das Comissões podem ter interesses financeiros na exploração da Área?</t>
+          <t>Quem fiscaliza a cobrança de pagamentos devidos à Autoridade?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Não, não devem ter interesses financeiros em qualquer atividade relacionada.</t>
+          <t>O Conselho, conforme o Art. 162, parágrafo 2º, alínea 'p'.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1565,23 +1565,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Qual Comissão examina tendências da oferta, procura e preços dos minerais?</t>
+          <t>O que o Conselho pode fazer em caso de risco de danos graves ao meio marinho?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A Comissão de Planejamento Econômico.</t>
+          <t>Emitir ordens de emergência, inclusive de suspensão de operações, conforme o Art. 162, parágrafo 2º, alínea 'w'.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1593,23 +1593,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Qual é a função da Comissão Jurídica e Técnica em relação aos planos de trabalho?</t>
+          <t>Quais são os órgãos subsidiários do Conselho criados pelo Artigo 163?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Examinar os planos de trabalho formais escritos e fazer recomendações ao Conselho.</t>
+          <t>Comissão Jurídica e Técnica e Comissão de Planejamento Econômico, conforme o Art. 163, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1621,23 +1621,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quem prepara avaliações das consequências ecológicas das atividades na Área?</t>
+          <t>Os membros das Comissões podem ter interesses financeiros na Área?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A Comissão Jurídica e Técnica.</t>
+          <t>Não, eles não devem ter interesses financeiros em qualquer atividade relacionada com a exploração na Área, conforme o Art. 163, parágrafo 8º.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pág 49</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1649,23 +1649,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Quem elege o Secretário Geral da Autoridade?</t>
+          <t>Qual requisito de composição a Comissão de Planejamento Econômico deve respeitar quanto a países em desenvolvimento?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A Assembleia, dentre candidatos propostos pelo Conselho.</t>
+          <t>Deve incluir pelo menos dois membros de Estados em desenvolvimento cujas exportações dos minerais da Área tenham consequências importantes em suas economias, conforme o Art. 164, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1677,23 +1677,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Qual é a consideração dominante no recrutamento do pessoal da Autoridade?</t>
+          <t>Qual Comissão examina tendências de oferta, procura e preços de minerais?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Assegurar o mais alto grau de eficiência, competência e integridade.</t>
+          <t>A Comissão de Planejamento Econômico, conforme o Art. 164, parágrafo 2º, alínea 'b'.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pág 50</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1705,23 +1705,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A quem o Secretário Geral e o pessoal da Autoridade são responsáveis?</t>
+          <t>Quem examina os planos de trabalho formais escritos para atividades na Área?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unicamente perante a Autoridade (caráter internacional).</t>
+          <t>A Comissão Jurídica e Técnica, conforme o Art. 165, parágrafo 2º, alínea 'b'.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Qual é a função da "Empresa" (The Enterprise)?</t>
+          <t>Qual é a função da Comissão Jurídica e Técnica em relação ao meio ambiente?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>É o órgão que realizará diretamente atividades na Área, bem como transporte, processamento e comercialização de minerais.</t>
+          <t>Preparar avaliações das consequências ecológicas das atividades na Área, conforme o Art. 165, parágrafo 2º, alínea 'd'.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1761,23 +1761,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Onde a Empresa terá a sua instalação principal?</t>
+          <t>Qual é a duração do mandato do Secretário Geral?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Na sede da Autoridade.</t>
+          <t>Quatro anos, podendo ser reeleito, conforme o Art. 166, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1789,23 +1789,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Para onde vão, em primeiro lugar, os fundos da Autoridade?</t>
+          <t>Qual é a consideração dominante no recrutamento do pessoal da Autoridade?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Para cobrir as despesas administrativas.</t>
+          <t>A necessidade de assegurar o mais alto grau de eficiência, competência e integridade, conforme o Art. 167, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1817,23 +1817,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A Autoridade tem imunidade de jurisdição?</t>
+          <t>O Secretário Geral e o pessoal podem receber instruções de governos?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sim, a Autoridade, seus bens e haveres gozam de imunidade de jurisdição e execução (salvo renúncia expressa).</t>
+          <t>Não, eles não solicitarão nem receberão instruções de qualquer governo ou fonte estranha à Autoridade, conforme o Art. 168, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1845,23 +1845,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Os arquivos da Autoridade são acessíveis ao público?</t>
+          <t>Com quem o Secretário Geral pode concluir ajustes de consulta?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Os arquivos são invioláveis; dados de segredo industrial e processos de pessoal não são acessíveis ao público.</t>
+          <t>Com organizações internacionais e não-governamentais reconhecidas pelo ECOSOC, com aprovação do Conselho, conforme o Art. 169, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1873,23 +1873,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A Autoridade paga impostos diretos sobre seus bens e haveres?</t>
+          <t>O que é a Empresa no contexto da Autoridade?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Não, a Autoridade e seus bens ficam isentos de qualquer imposto direto e direitos aduaneiros para uso oficial.</t>
+          <t>É o órgão que realizará diretamente atividades na Área, bem como transporte, processamento e comercialização de minerais, conforme o Art. 170, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág. 51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Em que situação um membro perde o direito de voto na Autoridade?</t>
+          <t>Quais fontes compõem os recursos financeiros da Autoridade?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Se estiver em atraso no pagamento de contribuições igual ou superior ao devido nos dois anos anteriores.</t>
+          <t>Contribuições dos membros, receitas da Área, fundos da Empresa, empréstimos, contribuições voluntárias e pagamentos compensatórios, conforme o Art. 171.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pág 53</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1929,23 +1929,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quem pode suspender o exercício de direitos e privilégios de um membro?</t>
+          <t>A Autoridade tem poder para contrair empréstimos?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A Assembleia, por recomendação do Conselho.</t>
+          <t>Sim, a Autoridade tem capacidade para contrair empréstimos, exercida pelo Conselho, conforme o Art. 174.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1957,23 +1957,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Qual órgão resolve controvérsias entre Estados Partes relativas à interpretação da Parte XI?</t>
+          <t>Como é feita a verificação das contas da Autoridade?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias dos Fundos Marinhos.</t>
+          <t>Anualmente por um auditor independente designado pela Assembleia, conforme o Art. 175.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág. 52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -1985,23 +1985,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Controvérsias sobre a interpretação de contratos podem ser submetidas a qual mecanismo?</t>
+          <t>Qual é o estatuto jurídico da Autoridade?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A uma arbitragem comercial obrigatória, a pedido de qualquer das partes.</t>
+          <t>Tem personalidade jurídica internacional e capacidade jurídica necessária ao exercício de suas funções, conforme o Art. 176.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -2013,23 +2013,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A Câmara de Controvérsias pode julgar o exercício de poderes discricionários da Autoridade?</t>
+          <t>Os bens da Autoridade podem ser alvo de busca ou confisco?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Não, não tem competência para se pronunciar sobre o exercício de poderes discricionários.</t>
+          <t>Não, gozam de imunidade de busca, requisição, confiscação, expropriação ou qualquer forma de detenção, conforme o Art. 179.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -2041,23 +2041,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Um Estado patrocinador pode intervir em processos envolvendo uma pessoa jurídica que patrocinou?</t>
+          <t>Qual é o status dos arquivos da Autoridade?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sim, tem o direito de participar nos procedimentos.</t>
+          <t>São invioláveis onde quer que se encontrem, conforme o Art. 181, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág. 53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -2069,23 +2069,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Quem pode solicitar pareceres consultivos à Câmara de Controvérsias?</t>
+          <t>A Autoridade paga impostos diretos sobre seus bens e operações oficiais?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A Assembleia ou o Conselho.</t>
+          <t>Não, a Autoridade fica isenta de qualquer imposto direto e direitos aduaneiros para uso oficial, conforme o Art. 183, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
@@ -2097,23 +2097,219 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Qual é o caráter dos pareceres consultivos emitidos pela Câmara?</t>
+          <t>Quando um Estado Parte perde o direito de voto na Autoridade?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Devem ser emitidos com caráter de urgência.</t>
+          <t>Quando o montante de sua dívida for igual ou superior às contribuições devidas nos dois anos anteriores completos, conforme o Art. 184.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág. 54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Parte XI</t>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Quem determina se um Estado violou gravemente a Convenção antes da suspensão de seus direitos?</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A Câmara de Controvérsias dos Fundos Marinhos, conforme o Art. 185, parágrafo 2º.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pág. 54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Qual órgão tem competência para solucionar controvérsias na Área?</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A Câmara de Controvérsias dos Fundos Marinhos, nos termos do Art. 187.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Pág. 55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Como são resolvidas controvérsias sobre a interpretação ou execução de um contrato na Área?</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Devem ser submetidas a uma arbitragem comercial obrigatória, salvo acordo em contrário, conforme o Art. 188, parágrafo 2º, alínea 'a'.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Pág. 55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Um Estado patrocinador pode participar de um processo envolvendo uma pessoa jurídica que patrocina?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sim, tem o direito de participar mediante declarações escritas ou orais, conforme o Art. 190, parágrafo 1º.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Pág. 55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Quem pode solicitar pareceres consultivos à Câmara de Controvérsias dos Fundos Marinhos?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A Assembleia ou o Conselho, conforme o Art. 191.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Pág. 56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Com que celeridade devem ser emitidos os pareceres consultivos?</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Com caráter de urgência, conforme o Art. 191.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Pág. 56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sobre quais assuntos a Câmara emite pareceres consultivos?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sobre questões jurídicas que se suscitem no âmbito das atividades da Assembleia ou do Conselho, conforme o Art. 191.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Pág. 56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Parte XI - A Área</t>
         </is>
       </c>
     </row>
